--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704877.6845387029</v>
+        <v>630240.3497745926</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009822</v>
+        <v>404724.2260944797</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528064</v>
+        <v>11762410.58428956</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7832015.603181845</v>
+        <v>7845948.686992516</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>124.9488863009592</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>72.14565954003523</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>117.530383720924</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>116.325098768111</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>123.9809112256318</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>56.17547468871012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>164.7228887332632</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,23 +1369,23 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>37.42681674263682</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W11" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>78.9586984879995</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>83.81147771958481</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>26.51572092966557</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952548</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.5308507323227</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>87.98187457576475</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.27666136637443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.2743413282673</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663109</v>
+        <v>71.62578123848419</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>230.8089443336075</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>131.2347923162838</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>149.9864429006004</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2984925031653</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>6.068759301785204</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>67.6217676444424</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V17" t="n">
-        <v>169.3575929423584</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>114.8747282490155</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I19" t="n">
-        <v>99.377439958035</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,22 +2046,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>208.0154504065777</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>40.285871036645</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>262.6152568331491</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>67.6217676444424</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>97.8123811771197</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>56.66199767592522</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984489</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V21" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>28.5103304121437</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>119.770791791062</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>393.2180301828082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>99.69856304335846</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>118.5757479745841</v>
       </c>
       <c r="C26" t="n">
-        <v>133.1229461180406</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>49.4525604164598</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>81.64802493589373</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2848,16 +2848,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>233.5819808540652</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>129.6431782479665</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>10.10581259942152</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>7.634490799661804</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>239.8883473080655</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>69.07086245343436</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3192,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>37.07115149839501</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>32.64956439616986</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3395,7 +3395,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I37" t="n">
-        <v>57.68157701938526</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>275.4805812731075</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>340.0237825764893</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>31.29558213980392</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>20.48699093885593</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>124.9606961356345</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>199.4782993751479</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="43">
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V43" t="n">
-        <v>156.1271626621471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>344.3310636953903</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>37.06286729089701</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.55700865267869</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>601.5428246748836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C3" t="n">
-        <v>581.8438274645554</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D3" t="n">
-        <v>581.8438274645554</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,7 +4418,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>617.1159779329607</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="4">
@@ -4506,16 +4506,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>325.7766548071333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>325.7766548071333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>82.32787816303323</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136.7812428759814</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.9965798960495</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>456.0377176450116</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C9" t="n">
-        <v>281.5846883638847</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>214.754872253567</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>214.754872253567</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>76.02404683618255</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>76.02404683618255</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>624.2530546650796</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>624.2530546650796</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="10">
@@ -4980,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C11" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D11" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
         <v>22.09252109618844</v>
@@ -5047,16 +5047,16 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5068,22 +5068,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W11" t="n">
-        <v>825.6800813726992</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="X11" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="Y11" t="n">
         <v>301.0384945329112</v>
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>476.7989437360102</v>
+        <v>530.5785315468668</v>
       </c>
       <c r="C12" t="n">
-        <v>476.7989437360102</v>
+        <v>530.5785315468668</v>
       </c>
       <c r="D12" t="n">
-        <v>327.864534074759</v>
+        <v>381.6441218856155</v>
       </c>
       <c r="E12" t="n">
-        <v>168.6270790693035</v>
+        <v>222.40666688016</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>28.39914141318535</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>28.39914141318535</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="M12" t="n">
-        <v>301.7940899785173</v>
+        <v>432.8873314017831</v>
       </c>
       <c r="N12" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5147,25 +5147,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>852.8657809616111</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>852.8657809616111</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V12" t="n">
-        <v>852.8657809616111</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W12" t="n">
-        <v>852.8657809616111</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X12" t="n">
-        <v>645.0142807560783</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="Y12" t="n">
-        <v>645.0142807560783</v>
+        <v>530.5785315468668</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="E13" t="n">
         <v>22.09252109618844</v>
@@ -5238,13 +5238,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1587.886542148019</v>
+        <v>1425.669346733108</v>
       </c>
       <c r="C14" t="n">
-        <v>1587.886542148019</v>
+        <v>1425.669346733108</v>
       </c>
       <c r="D14" t="n">
-        <v>1587.886542148019</v>
+        <v>1425.669346733108</v>
       </c>
       <c r="E14" t="n">
-        <v>1202.098289549775</v>
+        <v>1039.881094134864</v>
       </c>
       <c r="F14" t="n">
-        <v>791.1123847601673</v>
+        <v>628.8951893452563</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4625106837394</v>
+        <v>210.7200326460188</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721933</v>
+        <v>210.7200326460188</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721933</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827178</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977706</v>
+        <v>415.1943883367684</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480061</v>
+        <v>799.8264852341948</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640713</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938971</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653881</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250548</v>
+        <v>2325.21354847844</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860966</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860966</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S14" t="n">
-        <v>1809.524462979832</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="T14" t="n">
-        <v>1587.886542148019</v>
+        <v>2235.742146432051</v>
       </c>
       <c r="U14" t="n">
-        <v>1587.886542148019</v>
+        <v>2235.742146432051</v>
       </c>
       <c r="V14" t="n">
-        <v>1587.886542148019</v>
+        <v>1904.67925908848</v>
       </c>
       <c r="W14" t="n">
-        <v>1587.886542148019</v>
+        <v>1904.67925908848</v>
       </c>
       <c r="X14" t="n">
-        <v>1587.886542148019</v>
+        <v>1815.80867870892</v>
       </c>
       <c r="Y14" t="n">
-        <v>1587.886542148019</v>
+        <v>1425.669346733108</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>361.6290564995976</v>
+        <v>882.2247078646789</v>
       </c>
       <c r="C15" t="n">
-        <v>187.1760272184706</v>
+        <v>707.7716785835519</v>
       </c>
       <c r="D15" t="n">
-        <v>38.24161755721933</v>
+        <v>558.8372689223006</v>
       </c>
       <c r="E15" t="n">
-        <v>38.24161755721933</v>
+        <v>399.5998139168451</v>
       </c>
       <c r="F15" t="n">
-        <v>38.24161755721933</v>
+        <v>253.0652559437301</v>
       </c>
       <c r="G15" t="n">
-        <v>38.24161755721933</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721933</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721933</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J15" t="n">
-        <v>70.35630405680763</v>
+        <v>113.8920892923635</v>
       </c>
       <c r="K15" t="n">
-        <v>70.35630405680763</v>
+        <v>351.2426098932702</v>
       </c>
       <c r="L15" t="n">
-        <v>396.8557612354151</v>
+        <v>731.794072001526</v>
       </c>
       <c r="M15" t="n">
-        <v>829.8444494186595</v>
+        <v>1227.858900469303</v>
       </c>
       <c r="N15" t="n">
-        <v>1290.000073167519</v>
+        <v>1568.529207830409</v>
       </c>
       <c r="O15" t="n">
-        <v>1644.536891948534</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P15" t="n">
-        <v>1912.080877860966</v>
+        <v>2297.376506858684</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860966</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680898</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S15" t="n">
-        <v>1674.085213826039</v>
+        <v>2382.952717966947</v>
       </c>
       <c r="T15" t="n">
-        <v>1473.727085388635</v>
+        <v>2183.61837241466</v>
       </c>
       <c r="U15" t="n">
-        <v>1245.533311513552</v>
+        <v>1955.441308815178</v>
       </c>
       <c r="V15" t="n">
-        <v>1010.381203281809</v>
+        <v>1720.289200583435</v>
       </c>
       <c r="W15" t="n">
-        <v>777.2408554700844</v>
+        <v>1466.051843855234</v>
       </c>
       <c r="X15" t="n">
-        <v>569.3893552645516</v>
+        <v>1258.200343649701</v>
       </c>
       <c r="Y15" t="n">
-        <v>361.6290564995976</v>
+        <v>1050.440044884747</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>170.8020138362939</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8020138362939</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="D16" t="n">
-        <v>170.8020138362939</v>
+        <v>343.9090809192078</v>
       </c>
       <c r="E16" t="n">
-        <v>170.8020138362939</v>
+        <v>195.9959873368146</v>
       </c>
       <c r="F16" t="n">
-        <v>38.24161755721933</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G16" t="n">
-        <v>38.24161755721933</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721933</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721933</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721933</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727388</v>
+        <v>94.61295399245034</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473011</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519021</v>
+        <v>338.7052604257292</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922409</v>
+        <v>471.3735460023452</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856838</v>
+        <v>577.8978852021172</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041376</v>
+        <v>645.5271778068975</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041376</v>
+        <v>645.5271778068975</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041376</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041376</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041376</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="U16" t="n">
-        <v>170.8020138362939</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="V16" t="n">
-        <v>170.8020138362939</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="W16" t="n">
-        <v>170.8020138362939</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="X16" t="n">
-        <v>170.8020138362939</v>
+        <v>494.0257203315435</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.8020138362939</v>
+        <v>494.0257203315435</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1749.341643278937</v>
+        <v>466.222004529305</v>
       </c>
       <c r="C17" t="n">
-        <v>1749.341643278937</v>
+        <v>466.222004529305</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>466.222004529305</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>466.222004529305</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>55.23609973969741</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>55.23609973969741</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>55.23609973969741</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>415.1943883367684</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>799.8264852341949</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2325.21354847844</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2167.437330629584</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>1913.658637379881</v>
       </c>
       <c r="V17" t="n">
-        <v>2526.08081531887</v>
+        <v>1582.595750036311</v>
       </c>
       <c r="W17" t="n">
-        <v>2526.08081531887</v>
+        <v>1229.827094766197</v>
       </c>
       <c r="X17" t="n">
-        <v>2526.08081531887</v>
+        <v>856.3613365051167</v>
       </c>
       <c r="Y17" t="n">
-        <v>2135.941483343059</v>
+        <v>466.222004529305</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>794.3005707992627</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>619.8475415181357</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>470.9131318568844</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>311.6756768514289</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>165.1411188783139</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>286.456560439811</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>667.0080225480669</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1163.072851015844</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1687.974052793654</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2101.740426395771</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2416.82135182193</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2295.028580901531</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2095.694235349244</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167582</v>
+        <v>1867.517171749762</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1632.365063518019</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1378.127706789817</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1170.276206584285</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>962.5159078193308</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>368.9169416640007</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="C19" t="n">
-        <v>199.9807587360937</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="D19" t="n">
-        <v>199.9807587360937</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="E19" t="n">
-        <v>199.9807587360937</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="F19" t="n">
-        <v>199.9807587360937</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="G19" t="n">
-        <v>199.9807587360937</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="H19" t="n">
-        <v>199.9807587360937</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I19" t="n">
-        <v>99.5995062532301</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>94.61295399245037</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>208.3725712297703</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>338.7052604257293</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>471.3735460023453</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>577.8978852021173</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600564</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942404</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="S19" t="n">
-        <v>550.5654064942404</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="T19" t="n">
-        <v>550.5654064942404</v>
+        <v>417.8139201001488</v>
       </c>
       <c r="U19" t="n">
-        <v>550.5654064942404</v>
+        <v>417.8139201001488</v>
       </c>
       <c r="V19" t="n">
-        <v>550.5654064942404</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="W19" t="n">
-        <v>550.5654064942404</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="X19" t="n">
-        <v>550.5654064942404</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="Y19" t="n">
-        <v>550.5654064942404</v>
+        <v>207.6973035278481</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>799.8716139843721</v>
+        <v>997.857706285668</v>
       </c>
       <c r="C20" t="n">
-        <v>799.8716139843721</v>
+        <v>628.8951893452562</v>
       </c>
       <c r="D20" t="n">
-        <v>799.8716139843721</v>
+        <v>628.8951893452562</v>
       </c>
       <c r="E20" t="n">
-        <v>799.8716139843721</v>
+        <v>628.8951893452562</v>
       </c>
       <c r="F20" t="n">
-        <v>799.8716139843721</v>
+        <v>628.8951893452562</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>210.7200326460187</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>210.7200326460187</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>415.1943883367684</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>799.8264852341952</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2049.152696194595</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2325.21354847844</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2386.997176142747</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2386.997176142747</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2386.997176142747</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834948</v>
+        <v>2133.218482893044</v>
       </c>
       <c r="V20" t="n">
-        <v>1916.245359491378</v>
+        <v>1802.155595549474</v>
       </c>
       <c r="W20" t="n">
-        <v>1563.476704221264</v>
+        <v>1802.155595549474</v>
       </c>
       <c r="X20" t="n">
-        <v>1190.010945960184</v>
+        <v>1428.689837288394</v>
       </c>
       <c r="Y20" t="n">
-        <v>799.8716139843721</v>
+        <v>1038.550505312582</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>737.0662297124702</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>562.6132004313432</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>413.678790770092</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>254.4413357646364</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>155.6409507372428</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>155.6409507372428</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>113.8920892923635</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>351.2426098932703</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>547.5631775848223</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1043.628006052599</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1568.52920783041</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2297.376506858685</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945214</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2398.067650858421</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2237.794239814738</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2038.459894262452</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167582</v>
+        <v>1810.282830662969</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1575.130722431227</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1320.893365703025</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1113.041865497492</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>905.2815667325383</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761947</v>
+        <v>524.5465800381481</v>
       </c>
       <c r="C22" t="n">
-        <v>377.5443364482878</v>
+        <v>355.6103971102413</v>
       </c>
       <c r="D22" t="n">
-        <v>348.7460229006679</v>
+        <v>355.6103971102413</v>
       </c>
       <c r="E22" t="n">
-        <v>200.8329293182748</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>207.6973035278481</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890428</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>94.61295399245037</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>208.3725712297703</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>338.7052604257293</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>471.3735460023453</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>577.8978852021173</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068976</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>524.5465800381481</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064344</v>
+        <v>524.5465800381481</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1589.347031634718</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C23" t="n">
-        <v>1220.384514694307</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D23" t="n">
-        <v>862.1188160875561</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>862.1188160875561</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>451.1329112979485</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.086203674652</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.086203674652</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y23" t="n">
-        <v>1975.94687169884</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6074,37 +6074,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
         <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1761.414268258235</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6238,7 +6238,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V26" t="n">
-        <v>2134.880026519315</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W26" t="n">
-        <v>2134.880026519315</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X26" t="n">
-        <v>1761.414268258235</v>
+        <v>1521.073833303754</v>
       </c>
       <c r="Y26" t="n">
-        <v>1761.414268258235</v>
+        <v>1130.934501327942</v>
       </c>
     </row>
     <row r="27">
@@ -6302,52 +6302,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>204.0596212327002</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C28" t="n">
-        <v>204.0596212327002</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931989</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V28" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W28" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X28" t="n">
-        <v>204.0596212327002</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.0596212327002</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1679.795701438247</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.833184497836</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D29" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6469,13 +6469,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2066.395541502369</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>2066.395541502369</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W29" t="n">
-        <v>2066.395541502369</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.395541502369</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y29" t="n">
-        <v>2066.395541502369</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6557,28 +6557,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>246.1363086691491</v>
+        <v>538.7689125078492</v>
       </c>
       <c r="C31" t="n">
-        <v>246.1363086691491</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D31" t="n">
-        <v>246.1363086691491</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E31" t="n">
-        <v>246.1363086691491</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F31" t="n">
-        <v>246.1363086691491</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>246.1363086691491</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>246.1363086691491</v>
+        <v>720.417377338089</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2147.451536646714</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C32" t="n">
-        <v>1778.489019706303</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D32" t="n">
-        <v>1420.223321099552</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>1034.435068501308</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>623.4491637117005</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="V32" t="n">
-        <v>2147.451536646714</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="W32" t="n">
-        <v>2147.451536646714</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.451536646714</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y32" t="n">
-        <v>2147.451536646714</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6791,13 +6791,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6806,22 +6806,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>431.1223972961881</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>609.3508327416157</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>240.388315801204</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>240.388315801204</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>240.388315801204</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>240.388315801204</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>240.388315801204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.090004781549</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>995.9506728057374</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961344</v>
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7043,16 +7043,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G37" t="n">
-        <v>269.9555735993346</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H37" t="n">
-        <v>112.2072010318647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7134,13 +7134,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1194.175505447094</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1194.175505447094</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D38" t="n">
-        <v>1194.175505447094</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E38" t="n">
-        <v>808.38725284885</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
-        <v>397.4013480592425</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036444</v>
@@ -7213,13 +7213,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511216</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537796</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.2718927217162</v>
+        <v>696.5172850753191</v>
       </c>
       <c r="C40" t="n">
-        <v>190.2718927217162</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2718927217162</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2718927217162</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036444</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>707.4350539651656</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1293.182375355301</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C41" t="n">
-        <v>924.2198584148889</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>565.9541598081385</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>180.1659072098942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>180.1659072098942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>180.1659072098942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7441,22 +7441,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2495.655859326154</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2241.894073964245</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.387305656314</v>
+        <v>1910.831186620675</v>
       </c>
       <c r="W41" t="n">
-        <v>2443.387305656314</v>
+        <v>1558.062531350561</v>
       </c>
       <c r="X41" t="n">
-        <v>2069.921547395234</v>
+        <v>1184.596773089481</v>
       </c>
       <c r="Y41" t="n">
-        <v>1679.782215419422</v>
+        <v>1184.596773089481</v>
       </c>
     </row>
     <row r="42">
@@ -7493,13 +7493,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7514,19 +7514,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7599,13 +7599,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296039</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
         <v>53.94298182036445</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1995.909162857191</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.94664591678</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2386.048494833003</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2386.048494833003</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2386.048494833003</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>2386.048494833003</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y44" t="n">
-        <v>1995.909162857191</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7733,19 +7733,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>513.8405610245969</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W46" t="n">
-        <v>513.8405610245969</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X46" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>122.1984598562864</v>
@@ -8780,7 +8780,7 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>374.9186269287976</v>
+        <v>322.2123737917331</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>116.8467577020553</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>65.32190271305321</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>293.2505618014284</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.65476256012197</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>60.65058134701565</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>89.42592918711691</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>184.748532761334</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,7 +10916,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>214.525915814808</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22594,16 +22594,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>85.49942091536572</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>115.2702034285013</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22786,7 +22786,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>160.0089112227261</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>172.6288712164514</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>108.8196759237934</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>324.9137997770587</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>33.22115816270495</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>41.05009647021424</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
@@ -23308,25 +23308,25 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>185.0527290273318</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W11" t="n">
         <v>73.08445501505753</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>142.999281387019</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>120.9024024841723</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>121.8712180577195</v>
       </c>
     </row>
     <row r="13">
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>119.9182417169036</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463315</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492402</v>
+        <v>67.62176764444243</v>
       </c>
       <c r="S14" t="n">
-        <v>88.36225318921616</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>281.7492261027043</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8944188046378</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.898099562911</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493654</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>56.66199767592524</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>87.04489569476164</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>20.88603882731215</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.18625570664744</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6144703808229</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153679</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270812</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781627</v>
+        <v>51.83555490345137</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802107</v>
+        <v>36.98188228487139</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191054</v>
+        <v>0.8988411981078173</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4550733994452</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T16" t="n">
-        <v>226.33686925111</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>153.9290935772581</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3946655277765</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>21.76823432838758</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.27666136637443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>56.66199767592522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.58818183430323</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>51.83555490345135</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>36.98188228487138</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>44.12219291725029</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>342.4479706268356</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>151.1689131876459</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>47.25683121626417</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.27666136637443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>120.1051426060687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>51.83555490345135</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>36.98188228487138</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>105.9388635979752</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>20.56613983798678</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>249.5424056740545</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>264.1580936888964</v>
       </c>
       <c r="C26" t="n">
-        <v>232.149945652967</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>99.16291260175257</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>204.633849306084</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>17.64218665422413</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>240.0879224305025</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,19 +24849,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.0650762423736</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>210.950162552433</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>173.8958227127295</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>182.1533050548549</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>130.2386507606559</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>62.45749068994769</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>291.2732083681873</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,13 +25210,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I37" t="n">
-        <v>77.28404477295297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>89.79231049790002</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>73.76038744430571</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>148.5363980421334</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25602,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>204.5481145192283</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>198.9620766287227</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25681,22 +25681,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>16.97002098250994</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25839,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V43" t="n">
-        <v>96.01048066168093</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>37.59930637687148</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>214.1613002173923</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>35.43826180874038</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.0276446994161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>494709.8250126226</v>
+        <v>494709.8250126224</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645869.0160600516</v>
+        <v>747556.1057802824</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792828.145147663</v>
+        <v>747556.1057802823</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792828.1451476631</v>
+        <v>747556.1057802824</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792828.1451476633</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398032</v>
+        <v>150604.5581398033</v>
       </c>
       <c r="F2" t="n">
-        <v>198862.5864584591</v>
+        <v>231326.4874512437</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>231326.4874512437</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>231326.4874512438</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26343,16 +26343,16 @@
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="O2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133938</v>
@@ -26377,16 +26377,16 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689317</v>
+        <v>326513.677765922</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328036</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>55256.55893425995</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213663</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138635</v>
+        <v>82704.25131371447</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112675</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>25384.5047005482</v>
       </c>
       <c r="F4" t="n">
-        <v>26247.37101837719</v>
+        <v>26828.23226731028</v>
       </c>
       <c r="G4" t="n">
-        <v>27086.83710496504</v>
+        <v>26828.23226731028</v>
       </c>
       <c r="H4" t="n">
-        <v>27086.83710496504</v>
+        <v>26828.23226731028</v>
       </c>
       <c r="I4" t="n">
         <v>27086.83710496504</v>
@@ -26481,13 +26481,13 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221568</v>
+        <v>44420.77245688341</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>44420.77245688342</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>44420.77245688342</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13096.39685629617</v>
+        <v>-25314.40747633658</v>
       </c>
       <c r="C6" t="n">
-        <v>67673.03467525161</v>
+        <v>55455.02405521111</v>
       </c>
       <c r="D6" t="n">
-        <v>67673.03467525155</v>
+        <v>55455.02405521111</v>
       </c>
       <c r="E6" t="n">
-        <v>69037.39279323924</v>
+        <v>57370.44020191477</v>
       </c>
       <c r="F6" t="n">
-        <v>-56194.95733106544</v>
+        <v>-173354.7988471707</v>
       </c>
       <c r="G6" t="n">
-        <v>-15690.6859877842</v>
+        <v>153158.8789187514</v>
       </c>
       <c r="H6" t="n">
-        <v>169461.4033450194</v>
+        <v>153158.8789187514</v>
       </c>
       <c r="I6" t="n">
-        <v>169461.4033450194</v>
+        <v>108136.4306649402</v>
       </c>
       <c r="J6" t="n">
-        <v>106401.4607459131</v>
+        <v>100333.0470000939</v>
       </c>
       <c r="K6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="L6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992001</v>
       </c>
       <c r="M6" t="n">
-        <v>160703.8203498057</v>
+        <v>154635.4066039865</v>
       </c>
       <c r="N6" t="n">
-        <v>120019.531483633</v>
+        <v>80688.73828548571</v>
       </c>
       <c r="O6" t="n">
-        <v>122229.5407038926</v>
+        <v>163392.9895992001</v>
       </c>
       <c r="P6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992001</v>
       </c>
     </row>
   </sheetData>
@@ -26749,19 +26749,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435319</v>
+        <v>325.6964302438609</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>325.696430243861</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>325.696430243861</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26801,25 +26801,25 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652416</v>
+        <v>613.8254979863034</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>613.8254979863034</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>613.8254979863035</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26971,16 +26971,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244065</v>
+        <v>290.6751695247356</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735548</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52.04723397322562</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.863705762886</v>
+        <v>337.6689842839479</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893141</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.46177476825198</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469648</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628859</v>
+        <v>337.6689842839477</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893142</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.863705762886</v>
+        <v>337.6689842839479</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893141</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714843</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H14" t="n">
-        <v>8.59611792051234</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407443</v>
+        <v>50.47803669136261</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991795</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369459</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369464</v>
+        <v>206.6224700128968</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961224</v>
+        <v>229.9073097771149</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885457</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164261</v>
+        <v>220.6077765276395</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107239</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840131</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622567</v>
+        <v>82.24735029670725</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470647</v>
+        <v>29.83641167510345</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636424</v>
+        <v>5.731602506100505</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771873</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728799</v>
+        <v>0.7005545858075499</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585446</v>
+        <v>6.765882447141338</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647854</v>
+        <v>24.11997148504065</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692284</v>
+        <v>66.18704531965103</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130579</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995798</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682249</v>
+        <v>177.5045544829042</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921632</v>
+        <v>182.2025718587803</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364167</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099143</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589955</v>
+        <v>89.42517835676725</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437583</v>
+        <v>43.4958364767179</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526951</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791563</v>
+        <v>2.823726598057623</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295264</v>
+        <v>0.04608911748733883</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358771</v>
+        <v>0.5873214315872901</v>
       </c>
       <c r="H16" t="n">
-        <v>3.34750709207171</v>
+        <v>5.221821455385183</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017711</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885651</v>
+        <v>41.52362521322141</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351371</v>
+        <v>68.23607177895968</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779213</v>
+        <v>87.31867901980495</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886752</v>
+        <v>92.06530404417856</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495203</v>
+        <v>89.87619689008055</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438744</v>
+        <v>83.01521471199263</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061552</v>
+        <v>71.03385750761186</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367331</v>
+        <v>49.180160966823</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806407</v>
+        <v>26.40810727846124</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527056</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171475</v>
+        <v>2.509464298600239</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559332</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.309332382889893</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>13.40920026627112</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>50.47803669136263</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>206.6224700128969</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>229.907309777115</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>233.6274504100009</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>220.6077765276395</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>188.2836333250453</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>141.393167362801</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>82.24735029670728</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>29.83641167510346</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>5.731602506100508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1047465906311914</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.7005545858075501</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>6.76588244714134</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>24.11997148504065</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>66.18704531965105</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>152.1094507473806</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>177.5045544829042</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>182.2025718587803</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>133.7751998109172</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>89.42517835676729</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>43.49583647671791</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>13.01249417059199</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>2.823726598057624</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.04608911748733884</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.5873214315872903</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>5.221821455385185</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>41.52362521322142</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>68.23607177895971</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>87.31867901980497</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>92.06530404417859</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>89.87619689008058</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>83.01521471199267</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>71.03385750761188</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>49.18016096682301</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>26.40810727846124</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>10.23541076684396</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.50946429860024</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03203571445021587</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.309332382889893</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>13.40920026627112</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>50.47803669136263</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>166.5519891000303</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>206.6224700128969</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>229.907309777115</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>233.6274504100009</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>220.6077765276395</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>188.2836333250453</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>141.393167362801</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>82.24735029670728</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>29.83641167510346</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>5.731602506100508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1047465906311914</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.7005545858075501</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>6.76588244714134</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>24.11997148504065</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>66.18704531965105</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>113.1242025687569</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>152.1094507473806</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>177.5045544829042</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>182.2025718587803</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>166.6797570890446</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>133.7751998109172</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>89.42517835676729</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>43.49583647671791</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>13.01249417059199</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>2.823726598057624</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.04608911748733884</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.5873214315872903</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>5.221821455385185</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>41.52362521322142</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>68.23607177895971</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246924</v>
+        <v>87.31867901980497</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>92.06530404417859</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>89.87619689008058</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>83.01521471199267</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>71.03385750761188</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>49.18016096682301</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>26.40810727846124</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>10.23541076684396</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.50946429860024</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03203571445021587</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>99.81127712997396</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>263.1686671037984</v>
+        <v>210.4624139667339</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
@@ -35509,7 +35509,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530543</v>
+        <v>99.17865997768857</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631301</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174096</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616821</v>
+        <v>449.0746100426747</v>
       </c>
       <c r="N14" t="n">
-        <v>357.703352903939</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574847</v>
+        <v>371.3097463686981</v>
       </c>
       <c r="P14" t="n">
-        <v>211.267043026937</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385651</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>32.43907727231142</v>
+        <v>65.44045399339318</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935429</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962064</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523834</v>
+        <v>344.1114215768753</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687018</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165983</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.5206920065948</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763086</v>
+        <v>45.96657995307683</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810827</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070811</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841806</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842713</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550901</v>
+        <v>68.31241677250534</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>99.1786599776886</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>270.6075506262145</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>388.5172695933601</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>449.0746100426747</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>441.5613112253942</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>371.3097463686981</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>278.8493457412584</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>131.4024681482562</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>384.3954162709656</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>501.0755843108858</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>530.2032341190006</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>417.9458319213297</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>318.2635610365242</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>38.86933345786267</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>45.96657995307686</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>131.6491810060192</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>134.0083692693092</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>68.31241677250537</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>99.1786599776886</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>270.6075506262145</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>388.5172695933601</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>449.0746100426747</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>441.5613112253942</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>371.3097463686981</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>278.8493457412584</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>131.4024681482562</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>65.44045399339319</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>198.3036037288404</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>501.0755843108858</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>530.2032341190006</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>417.9458319213297</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751866</v>
+        <v>318.2635610365242</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>159.5206920065949</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>45.96657995307686</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850085</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>131.6491810060192</v>
       </c>
       <c r="N22" t="n">
-        <v>148.370846145888</v>
+        <v>134.0083692693092</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>68.31241677250537</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,16 +36682,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37636,7 +37636,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37861,7 +37861,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38101,7 +38101,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>630240.3497745926</v>
+        <v>696537.4926872777</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404724.2260944797</v>
+        <v>406463.2981009822</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11762410.58428956</v>
+        <v>11783336.69528064</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7845948.686992516</v>
+        <v>7832015.603181843</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>117.530383720924</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>123.9809112256318</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>64.38401073897947</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>56.17547468871012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G11" t="n">
         <v>276.1565137023555</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>37.42681674263682</v>
+        <v>102.2133755837553</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="W11" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>104.6118865148295</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
         <v>111.5079271034444</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.81147771958481</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.51572092966557</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>48.87300409685975</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9934051322451</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9978528790433</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215389</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3642470580309</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>87.98187457576475</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>50.57233808865518</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6429625774031</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.27666136637443</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.62578123848419</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.341002096764</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952929634875</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>149.9864429006004</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>31.33416108653191</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>69.39895237677831</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>6.068759301785204</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.6217676444424</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3642470580309</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2409063172053</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>114.8747282490155</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6706769332458</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>197.341002096764</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952929634875</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0053510520544</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4361251296812</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0154504065777</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.285871036645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9934051322451</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9978528790433</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.6217676444424</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2409063172053</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>97.8123811771197</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4695617893551</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.66199767592522</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6706769332458</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>197.341002096764</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952929634875</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0053510520544</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>119.770791791062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.982503320826386</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>116.2349668968046</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>99.69856304335846</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>28.1011571445228</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118.5757479745841</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>87.10642790158352</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>49.4525604164598</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>199.3355115125534</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2848,16 +2848,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>129.6431782479665</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>129.6781866221426</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.634490799661804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>69.07086245343436</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>179.7943042043777</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>235.7412200973001</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>378.0679101942256</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>128.6652719985047</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>275.4805812731075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>58.49852621786687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.29558213980392</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.938553216412018</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>199.4782993751479</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>34.02048567924311</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>344.3310636953903</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>237.6596569995496</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4067,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G45" t="n">
         <v>136.5310119231965</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>11.67884460201109</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4418,7 +4418,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4445,16 +4445,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>617.1159779329607</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>373.6672012888606</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>165.8157010833278</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4518,7 +4518,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,7 +4655,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>437.1829490354398</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>193.7341723913397</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>193.7341723913397</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>373.9923272590225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>373.9923272590225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>214.754872253567</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>214.754872253567</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>76.02404683618255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>76.02404683618255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D11" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E11" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F11" t="n">
         <v>301.0384945329112</v>
@@ -5050,13 +5050,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,10 +5065,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S11" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T11" t="n">
         <v>858.9304414063566</v>
@@ -5077,16 +5077,16 @@
         <v>858.9304414063566</v>
       </c>
       <c r="V11" t="n">
+        <v>858.9304414063566</v>
+      </c>
+      <c r="W11" t="n">
+        <v>858.9304414063566</v>
+      </c>
+      <c r="X11" t="n">
         <v>579.9844679696339</v>
       </c>
-      <c r="W11" t="n">
-        <v>301.0384945329112</v>
-      </c>
-      <c r="X11" t="n">
-        <v>301.0384945329112</v>
-      </c>
       <c r="Y11" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>530.5785315468668</v>
+        <v>694.7518869381963</v>
       </c>
       <c r="C12" t="n">
-        <v>530.5785315468668</v>
+        <v>520.2988576570693</v>
       </c>
       <c r="D12" t="n">
-        <v>381.6441218856155</v>
+        <v>520.2988576570693</v>
       </c>
       <c r="E12" t="n">
-        <v>222.40666688016</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="F12" t="n">
-        <v>222.40666688016</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G12" t="n">
         <v>222.40666688016</v>
@@ -5120,22 +5120,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>45.18387750277333</v>
       </c>
       <c r="L12" t="n">
-        <v>159.4923828364511</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M12" t="n">
-        <v>432.8873314017831</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5144,28 +5144,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="V12" t="n">
-        <v>869.4739465776793</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="W12" t="n">
-        <v>615.2365898494777</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="X12" t="n">
-        <v>615.2365898494777</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="Y12" t="n">
-        <v>530.5785315468668</v>
+        <v>800.4204591753978</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>48.87607759080012</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
         <v>22.09252109618844</v>
@@ -5229,22 +5229,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1425.669346733108</v>
+        <v>892.0464150368002</v>
       </c>
       <c r="C14" t="n">
-        <v>1425.669346733108</v>
+        <v>892.0464150368002</v>
       </c>
       <c r="D14" t="n">
-        <v>1425.669346733108</v>
+        <v>842.6797442318914</v>
       </c>
       <c r="E14" t="n">
-        <v>1039.881094134864</v>
+        <v>456.8914916336472</v>
       </c>
       <c r="F14" t="n">
-        <v>628.8951893452563</v>
+        <v>456.8914916336472</v>
       </c>
       <c r="G14" t="n">
-        <v>210.7200326460188</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="H14" t="n">
-        <v>210.7200326460188</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="I14" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="J14" t="n">
-        <v>147.292913216816</v>
+        <v>96.93923871827178</v>
       </c>
       <c r="K14" t="n">
-        <v>415.1943883367684</v>
+        <v>305.6565612977707</v>
       </c>
       <c r="L14" t="n">
-        <v>799.8264852341948</v>
+        <v>616.8654835480064</v>
       </c>
       <c r="M14" t="n">
-        <v>1244.410349176443</v>
+        <v>979.751918564072</v>
       </c>
       <c r="N14" t="n">
-        <v>1681.556047289583</v>
+        <v>1333.878237938972</v>
       </c>
       <c r="O14" t="n">
-        <v>2049.152696194594</v>
+        <v>1623.082041653882</v>
       </c>
       <c r="P14" t="n">
-        <v>2325.21354847844</v>
+        <v>1832.23641425055</v>
       </c>
       <c r="Q14" t="n">
-        <v>2455.301991945214</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R14" t="n">
-        <v>2455.301991945214</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S14" t="n">
-        <v>2455.301991945214</v>
+        <v>1720.269661778605</v>
       </c>
       <c r="T14" t="n">
-        <v>2235.742146432051</v>
+        <v>1498.631740946792</v>
       </c>
       <c r="U14" t="n">
-        <v>2235.742146432051</v>
+        <v>1244.815070306914</v>
       </c>
       <c r="V14" t="n">
-        <v>1904.67925908848</v>
+        <v>1244.815070306914</v>
       </c>
       <c r="W14" t="n">
-        <v>1904.67925908848</v>
+        <v>892.0464150368002</v>
       </c>
       <c r="X14" t="n">
-        <v>1815.80867870892</v>
+        <v>892.0464150368002</v>
       </c>
       <c r="Y14" t="n">
-        <v>1425.669346733108</v>
+        <v>892.0464150368002</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>882.2247078646789</v>
+        <v>410.3123745979818</v>
       </c>
       <c r="C15" t="n">
-        <v>707.7716785835519</v>
+        <v>235.8593453168548</v>
       </c>
       <c r="D15" t="n">
-        <v>558.8372689223006</v>
+        <v>235.8593453168548</v>
       </c>
       <c r="E15" t="n">
-        <v>399.5998139168451</v>
+        <v>184.7761755303344</v>
       </c>
       <c r="F15" t="n">
-        <v>253.0652559437301</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="G15" t="n">
-        <v>115.0420614211007</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="H15" t="n">
-        <v>115.0420614211007</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="I15" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="J15" t="n">
-        <v>113.8920892923635</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="K15" t="n">
-        <v>351.2426098932702</v>
+        <v>70.3563040568082</v>
       </c>
       <c r="L15" t="n">
-        <v>731.794072001526</v>
+        <v>396.8557612354159</v>
       </c>
       <c r="M15" t="n">
-        <v>1227.858900469303</v>
+        <v>829.8444494186604</v>
       </c>
       <c r="N15" t="n">
-        <v>1568.529207830409</v>
+        <v>1290.00007316752</v>
       </c>
       <c r="O15" t="n">
-        <v>1982.295581432526</v>
+        <v>1644.536891948535</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.376506858684</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="Q15" t="n">
-        <v>2455.301991945214</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R15" t="n">
-        <v>2455.301991945214</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S15" t="n">
-        <v>2382.952717966947</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="T15" t="n">
-        <v>2183.61837241466</v>
+        <v>1711.722749423564</v>
       </c>
       <c r="U15" t="n">
-        <v>1955.441308815178</v>
+        <v>1483.528975548481</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.289200583435</v>
+        <v>1248.376867316738</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.051843855234</v>
+        <v>994.1395105885365</v>
       </c>
       <c r="X15" t="n">
-        <v>1258.200343649701</v>
+        <v>786.2880103830037</v>
       </c>
       <c r="Y15" t="n">
-        <v>1050.440044884747</v>
+        <v>578.5277116180498</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0257203315435</v>
+        <v>207.5491633964344</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0257203315435</v>
+        <v>207.5491633964344</v>
       </c>
       <c r="D16" t="n">
-        <v>343.9090809192078</v>
+        <v>207.5491633964344</v>
       </c>
       <c r="E16" t="n">
-        <v>195.9959873368146</v>
+        <v>207.5491633964344</v>
       </c>
       <c r="F16" t="n">
-        <v>49.10603983890427</v>
+        <v>207.5491633964344</v>
       </c>
       <c r="G16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="H16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="J16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721935</v>
       </c>
       <c r="K16" t="n">
-        <v>94.61295399245034</v>
+        <v>59.50088325727395</v>
       </c>
       <c r="L16" t="n">
-        <v>208.3725712297702</v>
+        <v>142.2318586473012</v>
       </c>
       <c r="M16" t="n">
-        <v>338.7052604257292</v>
+        <v>239.8491955519024</v>
       </c>
       <c r="N16" t="n">
-        <v>471.3735460023452</v>
+        <v>340.5800267922413</v>
       </c>
       <c r="O16" t="n">
-        <v>577.8978852021172</v>
+        <v>417.6049576856842</v>
       </c>
       <c r="P16" t="n">
-        <v>645.5271778068975</v>
+        <v>459.9924103041382</v>
       </c>
       <c r="Q16" t="n">
-        <v>645.5271778068975</v>
+        <v>459.9924103041382</v>
       </c>
       <c r="R16" t="n">
-        <v>494.0257203315435</v>
+        <v>459.9924103041382</v>
       </c>
       <c r="S16" t="n">
-        <v>494.0257203315435</v>
+        <v>428.3417425399645</v>
       </c>
       <c r="T16" t="n">
-        <v>494.0257203315435</v>
+        <v>428.3417425399645</v>
       </c>
       <c r="U16" t="n">
-        <v>494.0257203315435</v>
+        <v>428.3417425399645</v>
       </c>
       <c r="V16" t="n">
-        <v>494.0257203315435</v>
+        <v>428.3417425399645</v>
       </c>
       <c r="W16" t="n">
-        <v>494.0257203315435</v>
+        <v>428.3417425399645</v>
       </c>
       <c r="X16" t="n">
-        <v>494.0257203315435</v>
+        <v>428.3417425399645</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.0257203315435</v>
+        <v>207.5491633964344</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>466.222004529305</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C17" t="n">
-        <v>466.222004529305</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D17" t="n">
-        <v>466.222004529305</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="E17" t="n">
-        <v>466.222004529305</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="F17" t="n">
-        <v>55.23609973969741</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="G17" t="n">
-        <v>55.23609973969741</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>55.23609973969741</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>147.292913216816</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1943883367684</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>799.8264852341949</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
-        <v>1244.410349176443</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1681.556047289583</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2049.152696194594</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2325.21354847844</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2455.301991945214</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2386.997176142746</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2386.997176142746</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2167.437330629584</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>1913.658637379881</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>1582.595750036311</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>1229.827094766197</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X17" t="n">
-        <v>856.3613365051167</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y17" t="n">
-        <v>466.222004529305</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>794.3005707992627</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>619.8475415181357</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>470.9131318568844</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>311.6756768514289</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>165.1411188783139</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>49.10603983890427</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>49.10603983890427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>49.10603983890427</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>286.456560439811</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>667.0080225480669</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1163.072851015844</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1687.974052793654</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2101.740426395771</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2416.82135182193</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2455.301991945214</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2455.301991945214</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2295.028580901531</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2095.694235349244</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
-        <v>1867.517171749762</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1632.365063518019</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1378.127706789817</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1170.276206584285</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>962.5159078193308</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>207.6973035278481</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C19" t="n">
-        <v>207.6973035278481</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D19" t="n">
-        <v>207.6973035278481</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E19" t="n">
-        <v>207.6973035278481</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F19" t="n">
-        <v>207.6973035278481</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>207.6973035278481</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>94.61295399245037</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>208.3725712297703</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>338.7052604257293</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>471.3735460023453</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>577.8978852021173</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>417.8139201001488</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>417.8139201001488</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>207.6973035278481</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>207.6973035278481</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X19" t="n">
-        <v>207.6973035278481</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.6973035278481</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>997.857706285668</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C20" t="n">
-        <v>628.8951893452562</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>628.8951893452562</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>628.8951893452562</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>628.8951893452562</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>210.7200326460187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>210.7200326460187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>49.10603983890428</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>147.292913216816</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1943883367684</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>799.8264852341952</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
-        <v>1244.410349176443</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1681.556047289583</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
-        <v>2049.152696194595</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2325.21354847844</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2455.301991945214</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2386.997176142747</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2386.997176142747</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2386.997176142747</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2133.218482893044</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1802.155595549474</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W20" t="n">
-        <v>1802.155595549474</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X20" t="n">
-        <v>1428.689837288394</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y20" t="n">
-        <v>1038.550505312582</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>737.0662297124702</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>562.6132004313432</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>413.678790770092</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>254.4413357646364</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>155.6409507372428</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6409507372428</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>49.10603983890428</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>49.10603983890428</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>113.8920892923635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>351.2426098932703</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>547.5631775848223</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.628006052599</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1568.52920783041</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>1982.295581432526</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.376506858685</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2455.301991945214</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2398.067650858421</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2237.794239814738</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2038.459894262452</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
-        <v>1810.282830662969</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1575.130722431227</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1320.893365703025</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1113.041865497492</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>905.2815667325383</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.5465800381481</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6103971102413</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6103971102413</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E22" t="n">
-        <v>207.6973035278481</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F22" t="n">
-        <v>207.6973035278481</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G22" t="n">
-        <v>207.6973035278481</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>49.10603983890428</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>49.10603983890428</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>49.10603983890428</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>94.61295399245037</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>208.3725712297703</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>338.7052604257293</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>471.3735460023453</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>577.8978852021173</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>645.5271778068976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>524.5465800381481</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y22" t="n">
-        <v>524.5465800381481</v>
+        <v>498.1369047015218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1780.41262192169</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C23" t="n">
-        <v>1780.41262192169</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>1000.301752183305</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>589.3158473936974</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>171.3520392918842</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>171.3520392918842</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>1780.41262192169</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>1780.41262192169</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y23" t="n">
-        <v>1780.41262192169</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6086,25 +6086,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>699.7439769897445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1011.161018525332</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="C26" t="n">
-        <v>1011.161018525332</v>
+        <v>1366.643919803947</v>
       </c>
       <c r="D26" t="n">
-        <v>1011.161018525332</v>
+        <v>1008.378221197197</v>
       </c>
       <c r="E26" t="n">
-        <v>625.3727659270879</v>
+        <v>622.5899685989523</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
         <v>207.4089578252748</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W26" t="n">
-        <v>1894.539591564834</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="X26" t="n">
-        <v>1521.073833303754</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="Y26" t="n">
-        <v>1130.934501327942</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6311,10 +6311,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517452</v>
@@ -6332,16 +6332,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207637</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>272.8312459770186</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C28" t="n">
-        <v>103.8950630491117</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036444</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V28" t="n">
-        <v>500.820796875036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W28" t="n">
-        <v>500.820796875036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X28" t="n">
-        <v>272.8312459770186</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y28" t="n">
-        <v>272.8312459770186</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1763.586886263858</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C29" t="n">
-        <v>1394.624369323446</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D29" t="n">
-        <v>1036.358670716696</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6469,13 +6469,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>1894.539591564834</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X29" t="n">
-        <v>1763.586886263858</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y29" t="n">
-        <v>1763.586886263858</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>538.7689125078492</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C31" t="n">
-        <v>369.8327295799423</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D31" t="n">
-        <v>369.8327295799423</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799423</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.417377338089</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1422.14692331494</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C32" t="n">
-        <v>1422.14692331494</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.14692331494</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2572.351853615953</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V32" t="n">
-        <v>2572.351853615953</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.351853615953</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X32" t="n">
-        <v>2198.886095354873</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y32" t="n">
-        <v>1808.746763379062</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="33">
@@ -6791,13 +6791,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036444</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>211.6471865296039</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>211.6471865296039</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W34" t="n">
-        <v>211.6471865296039</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X34" t="n">
-        <v>211.6471865296039</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>962.1597273639309</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>962.1597273639309</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C37" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D37" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5382038240415</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="F37" t="n">
-        <v>149.5382038240415</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.5382038240415</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.680947310029</v>
+        <v>798.4928208131998</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>440.2271222064493</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>440.2271222064493</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>440.2271222064493</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036444</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7204,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757142</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.54400078133</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7259,46 +7259,46 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.5172850753191</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C40" t="n">
-        <v>527.5811021474123</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>527.5811021474123</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>527.5811021474123</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036444</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>797.9969330253591</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2495.655859326154</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2241.894073964245</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>1910.831186620675</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1558.062531350561</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1184.596773089481</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1184.596773089481</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7496,10 +7496,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D44" t="n">
-        <v>819.7159451700466</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757142</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.54400078133</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152625</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U46" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V46" t="n">
-        <v>246.1363086691491</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W46" t="n">
-        <v>246.1363086691491</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>142.6317767593718</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>322.2123737917331</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>84.40768042974381</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>97.76097998536508</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>293.2505618014284</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>82.6547625601219</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>60.65058134701565</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.42592918711691</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>184.748532761334</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22685,7 +22685,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>115.2702034285013</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22758,10 +22758,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>172.6288712164514</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>108.8196759237934</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>187.3109724219401</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>324.9137997770587</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>33.22115816270495</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
         <v>139.005434824964</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>185.0527290273318</v>
+        <v>120.2661701862133</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>61.92129713503788</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
@@ -23396,16 +23396,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>121.8712180577195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>119.9182417169036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23469,7 +23469,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U13" t="n">
         <v>286.3155846423218</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>305.8100375238232</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.065601849496</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.62176764444243</v>
+        <v>97.14353343492394</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1836579111419</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2409063172053</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>281.7492261027043</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>107.0727423667458</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4695617893551</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73.93425515493652</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.66199767592524</v>
+        <v>72.27434132826727</v>
       </c>
       <c r="S15" t="n">
-        <v>87.04489569476164</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4036579268715</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0053510520544</v>
+        <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
-        <v>137.7881176937059</v>
+        <v>144.1278231270812</v>
       </c>
       <c r="J16" t="n">
-        <v>51.83555490345137</v>
+        <v>66.73999539781623</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.98188228487139</v>
+        <v>54.63455058802103</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8988411981078173</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7811872701283</v>
+        <v>186.1209123129133</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4361251296812</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2869936420407</v>
+        <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9934051322451</v>
+        <v>344.3852176440167</v>
       </c>
       <c r="H17" t="n">
-        <v>326.065601849496</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>153.9290935772581</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1836579111419</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>21.76823432838758</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4695617893551</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.27666136637443</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.66199767592522</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>50.7817782392907</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4036579268715</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>137.7881176937059</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>51.83555490345135</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.98188228487138</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8852840987082</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7811872701283</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2869936420407</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.12219291725029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.4479706268356</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.065601849496</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1836579111419</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3642470580309</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>52.27167719702715</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>47.25683121626417</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6429625774031</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.27666136637443</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4036579268715</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>137.7881176937059</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>51.83555490345135</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.98188228487138</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8852840987082</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7811872701283</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4361251296812</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2869936420407</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>105.9388635979752</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>216.6021500312684</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>35.69634934805667</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>249.5424056740545</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>224.0364861793052</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>264.1580936888964</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>319.7696178401279</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>99.16291260175257</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24651,10 +24651,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4816825345735</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>207.540534229158</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>240.0879224305025</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>50.15379355979468</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>210.950162552433</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,19 +24973,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>182.1533050548549</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>206.4436344516758</v>
       </c>
     </row>
     <row r="33">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25128,13 +25128,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>16.39642322652793</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.45749068994769</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>8.17002846182794</v>
       </c>
     </row>
     <row r="36">
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>16.75577602442655</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>61.53161905815483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25365,16 +25365,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>89.79231049790002</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>355.2856438029281</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.5363980421334</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,13 +25602,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>250.199090107416</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>285.6121791672481</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>16.97002098250994</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>184.5641676728517</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>37.59930637687148</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>111.5813117178634</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,7 +26073,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>35.43826180874038</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>494709.8250126224</v>
+        <v>494709.8250126225</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>747556.1057802824</v>
+        <v>645869.0160600521</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>747556.1057802823</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>747556.1057802824</v>
+        <v>792828.1451476633</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
   </sheetData>
@@ -26325,16 +26325,16 @@
         <v>150604.5581398033</v>
       </c>
       <c r="F2" t="n">
-        <v>231326.4874512437</v>
+        <v>198862.5864584592</v>
       </c>
       <c r="G2" t="n">
-        <v>231326.4874512437</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
-        <v>231326.4874512438</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26346,13 +26346,13 @@
         <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="N2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="O2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>245779.7185133939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133938</v>
@@ -26377,19 +26377,19 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>326513.677765922</v>
+        <v>195194.892168932</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>185152.0893328033</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55256.55893425995</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
-        <v>82704.25131371447</v>
+        <v>49441.87186138644</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47231.86264112667</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>25384.5047005482</v>
       </c>
       <c r="F4" t="n">
-        <v>26828.23226731028</v>
+        <v>26247.37101837719</v>
       </c>
       <c r="G4" t="n">
-        <v>26828.23226731028</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="H4" t="n">
-        <v>26828.23226731028</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="I4" t="n">
         <v>27086.83710496504</v>
@@ -26481,13 +26481,13 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>44420.77245688341</v>
+        <v>33615.28060221571</v>
       </c>
       <c r="G5" t="n">
-        <v>44420.77245688342</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>44420.77245688342</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25314.40747633658</v>
+        <v>-14318.19791830016</v>
       </c>
       <c r="C6" t="n">
-        <v>55455.02405521111</v>
+        <v>66451.23361324753</v>
       </c>
       <c r="D6" t="n">
-        <v>55455.02405521111</v>
+        <v>66451.23361324756</v>
       </c>
       <c r="E6" t="n">
-        <v>57370.44020191477</v>
+        <v>67870.69753410682</v>
       </c>
       <c r="F6" t="n">
-        <v>-173354.7988471707</v>
+        <v>-57077.78183538256</v>
       </c>
       <c r="G6" t="n">
-        <v>153158.8789187514</v>
+        <v>-16297.52736236589</v>
       </c>
       <c r="H6" t="n">
-        <v>153158.8789187514</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="I6" t="n">
-        <v>108136.4306649402</v>
+        <v>168854.5619704374</v>
       </c>
       <c r="J6" t="n">
-        <v>100333.0470000939</v>
+        <v>105794.6193713313</v>
       </c>
       <c r="K6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="L6" t="n">
-        <v>163392.9895992001</v>
+        <v>168854.5619704374</v>
       </c>
       <c r="M6" t="n">
-        <v>154635.4066039865</v>
+        <v>160096.9789752237</v>
       </c>
       <c r="N6" t="n">
-        <v>80688.73828548571</v>
+        <v>119412.690109051</v>
       </c>
       <c r="O6" t="n">
-        <v>163392.9895992001</v>
+        <v>121622.6993293108</v>
       </c>
       <c r="P6" t="n">
-        <v>163392.9895992001</v>
+        <v>168854.5619704374</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>325.6964302438609</v>
+        <v>208.7913421435321</v>
       </c>
       <c r="G3" t="n">
-        <v>325.696430243861</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>325.696430243861</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26801,22 +26801,22 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>613.8254979863034</v>
+        <v>478.0202194652419</v>
       </c>
       <c r="G4" t="n">
-        <v>613.8254979863034</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>613.8254979863035</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545555</v>
@@ -26971,16 +26971,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>290.6751695247356</v>
+        <v>173.7700814244068</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>168.9523220735545</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>52.04723397322562</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,19 +27023,19 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>337.6689842839479</v>
+        <v>201.8637057628864</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.2670532893137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.46177476825198</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839477</v>
+        <v>201.8637057628863</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893138</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839479</v>
+        <v>201.8637057628864</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893137</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.309332382889892</v>
+        <v>0.8393621794714854</v>
       </c>
       <c r="H14" t="n">
-        <v>13.40920026627111</v>
+        <v>8.596117920512352</v>
       </c>
       <c r="I14" t="n">
-        <v>50.47803669136261</v>
+        <v>32.35951042407447</v>
       </c>
       <c r="J14" t="n">
-        <v>111.1279493323011</v>
+        <v>71.23981577991805</v>
       </c>
       <c r="K14" t="n">
-        <v>166.5519891000303</v>
+        <v>106.770016836946</v>
       </c>
       <c r="L14" t="n">
-        <v>206.6224700128968</v>
+        <v>132.4576471369465</v>
       </c>
       <c r="M14" t="n">
-        <v>229.9073097771149</v>
+        <v>147.3846542961226</v>
       </c>
       <c r="N14" t="n">
-        <v>233.6274504100008</v>
+        <v>149.7694920885459</v>
       </c>
       <c r="O14" t="n">
-        <v>220.6077765276395</v>
+        <v>141.4230844164263</v>
       </c>
       <c r="P14" t="n">
-        <v>188.2836333250452</v>
+        <v>120.701330610724</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.3931673628009</v>
+        <v>90.64167255840142</v>
       </c>
       <c r="R14" t="n">
-        <v>82.24735029670725</v>
+        <v>52.72558450622574</v>
       </c>
       <c r="S14" t="n">
-        <v>29.83641167510345</v>
+        <v>19.12696566470649</v>
       </c>
       <c r="T14" t="n">
-        <v>5.731602506100505</v>
+        <v>3.674307940636429</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.06714897435771881</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7005545858075499</v>
+        <v>0.4490983585728805</v>
       </c>
       <c r="H15" t="n">
-        <v>6.765882447141338</v>
+        <v>4.337344673585451</v>
       </c>
       <c r="I15" t="n">
-        <v>24.11997148504065</v>
+        <v>15.46237769647856</v>
       </c>
       <c r="J15" t="n">
-        <v>66.18704531965103</v>
+        <v>42.42994623692289</v>
       </c>
       <c r="K15" t="n">
-        <v>113.1242025687569</v>
+        <v>72.51953626130589</v>
       </c>
       <c r="L15" t="n">
-        <v>152.1094507473805</v>
+        <v>97.51146596995811</v>
       </c>
       <c r="M15" t="n">
-        <v>177.5045544829042</v>
+        <v>113.791281468225</v>
       </c>
       <c r="N15" t="n">
-        <v>182.2025718587803</v>
+        <v>116.8029980921633</v>
       </c>
       <c r="O15" t="n">
-        <v>166.6797570890446</v>
+        <v>106.8519239364169</v>
       </c>
       <c r="P15" t="n">
-        <v>133.7751998109171</v>
+        <v>85.75808919099154</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.42517835676725</v>
+        <v>57.32701152589963</v>
       </c>
       <c r="R15" t="n">
-        <v>43.4958364767179</v>
+        <v>27.88349282437587</v>
       </c>
       <c r="S15" t="n">
-        <v>13.01249417059198</v>
+        <v>8.341805037526964</v>
       </c>
       <c r="T15" t="n">
-        <v>2.823726598057623</v>
+        <v>1.810181541791566</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04608911748733883</v>
+        <v>0.02954594464295267</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5873214315872901</v>
+        <v>0.3765089776358776</v>
       </c>
       <c r="H16" t="n">
-        <v>5.221821455385183</v>
+        <v>3.347507092071714</v>
       </c>
       <c r="I16" t="n">
-        <v>17.66235723355233</v>
+        <v>11.32265180017712</v>
       </c>
       <c r="J16" t="n">
-        <v>41.52362521322141</v>
+        <v>26.61918471885654</v>
       </c>
       <c r="K16" t="n">
-        <v>68.23607177895968</v>
+        <v>43.74349758351377</v>
       </c>
       <c r="L16" t="n">
-        <v>87.31867901980495</v>
+        <v>55.97661654779221</v>
       </c>
       <c r="M16" t="n">
-        <v>92.06530404417856</v>
+        <v>59.01949364886761</v>
       </c>
       <c r="N16" t="n">
-        <v>89.87619689008055</v>
+        <v>57.61614200495211</v>
       </c>
       <c r="O16" t="n">
-        <v>83.01521471199263</v>
+        <v>53.21783258438752</v>
       </c>
       <c r="P16" t="n">
-        <v>71.03385750761186</v>
+        <v>45.53704944061558</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.180160966823</v>
+        <v>31.52749266367335</v>
       </c>
       <c r="R16" t="n">
-        <v>26.40810727846124</v>
+        <v>16.92921275806409</v>
       </c>
       <c r="S16" t="n">
-        <v>10.23541076684395</v>
+        <v>6.561524637527064</v>
       </c>
       <c r="T16" t="n">
-        <v>2.509464298600239</v>
+        <v>1.608720177171477</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03203571445021586</v>
+        <v>0.02053685332559335</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.309332382889893</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>13.40920026627112</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>50.47803669136263</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
-        <v>111.1279493323011</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>166.5519891000303</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>206.6224700128969</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>229.907309777115</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>233.6274504100009</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>220.6077765276395</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>188.2836333250453</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.393167362801</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>82.24735029670728</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>29.83641167510346</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>5.731602506100508</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1047465906311914</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7005545858075501</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>6.76588244714134</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>24.11997148504065</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>66.18704531965105</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>113.1242025687569</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>152.1094507473806</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>177.5045544829042</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2025718587803</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>166.6797570890446</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>133.7751998109172</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.42517835676729</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>43.49583647671791</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>13.01249417059199</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>2.823726598057624</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04608911748733884</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5873214315872903</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>5.221821455385185</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>17.66235723355233</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>41.52362521322142</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>68.23607177895971</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>87.31867901980497</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>92.06530404417859</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>89.87619689008058</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>83.01521471199267</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>71.03385750761188</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.18016096682301</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>26.40810727846124</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
-        <v>10.23541076684396</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.50946429860024</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03203571445021587</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.309332382889893</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>13.40920026627112</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>50.47803669136263</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>111.1279493323011</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>166.5519891000303</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>206.6224700128969</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>229.907309777115</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>233.6274504100009</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>220.6077765276395</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>188.2836333250453</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.393167362801</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>82.24735029670728</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>29.83641167510346</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>5.731602506100508</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1047465906311914</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7005545858075501</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>6.76588244714134</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>24.11997148504065</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>66.18704531965105</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>113.1242025687569</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>152.1094507473806</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>177.5045544829042</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>182.2025718587803</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>166.6797570890446</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>133.7751998109172</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.42517835676729</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>43.49583647671791</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>13.01249417059199</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>2.823726598057624</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04608911748733884</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5873214315872903</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>5.221821455385185</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>17.66235723355233</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>41.52362521322142</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>68.23607177895971</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
-        <v>87.31867901980497</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>92.06530404417859</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>89.87619689008058</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>83.01521471199267</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>71.03385750761188</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.18016096682301</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>26.40810727846124</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
-        <v>10.23541076684396</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.50946429860024</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03203571445021587</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>16.95427887837169</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>210.4624139667339</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>99.17865997768857</v>
+        <v>59.29052642530553</v>
       </c>
       <c r="K14" t="n">
-        <v>270.6075506262144</v>
+        <v>210.8255783631302</v>
       </c>
       <c r="L14" t="n">
-        <v>388.51726959336</v>
+        <v>314.3524467174097</v>
       </c>
       <c r="M14" t="n">
-        <v>449.0746100426747</v>
+        <v>366.5519545616824</v>
       </c>
       <c r="N14" t="n">
-        <v>441.5613112253941</v>
+        <v>357.7033529039392</v>
       </c>
       <c r="O14" t="n">
-        <v>371.3097463686981</v>
+        <v>292.125054257485</v>
       </c>
       <c r="P14" t="n">
-        <v>278.8493457412583</v>
+        <v>211.2670430269371</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.4024681482561</v>
+        <v>80.65097334385662</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.44045399339318</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7480006069765</v>
+        <v>32.43907727231197</v>
       </c>
       <c r="L15" t="n">
-        <v>384.3954162709655</v>
+        <v>329.7974314935431</v>
       </c>
       <c r="M15" t="n">
-        <v>501.0755843108857</v>
+        <v>437.3623112962066</v>
       </c>
       <c r="N15" t="n">
-        <v>344.1114215768753</v>
+        <v>464.8036603523835</v>
       </c>
       <c r="O15" t="n">
-        <v>417.9458319213296</v>
+        <v>358.117998768702</v>
       </c>
       <c r="P15" t="n">
-        <v>318.263561036524</v>
+        <v>270.2464504165985</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.5206920065948</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.96657995307683</v>
+        <v>21.47400575763092</v>
       </c>
       <c r="L16" t="n">
-        <v>114.9087042801211</v>
+        <v>83.56664180810836</v>
       </c>
       <c r="M16" t="n">
-        <v>131.6491810060191</v>
+        <v>98.6033706107082</v>
       </c>
       <c r="N16" t="n">
-        <v>134.0083692693091</v>
+        <v>101.7483143841807</v>
       </c>
       <c r="O16" t="n">
-        <v>107.6003426260323</v>
+        <v>77.8029604984272</v>
       </c>
       <c r="P16" t="n">
-        <v>68.31241677250534</v>
+        <v>42.81560870550906</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>99.1786599776886</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>270.6075506262145</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>388.5172695933601</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>449.0746100426747</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>441.5613112253942</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>371.3097463686981</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8493457412584</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.4024681482562</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>239.7480006069765</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>384.3954162709656</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>501.0755843108858</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>530.2032341190006</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>417.9458319213297</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>318.2635610365242</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.86933345786267</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.96657995307686</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>114.9087042801211</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>131.6491810060192</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>134.0083692693092</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>107.6003426260323</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>68.31241677250537</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>99.1786599776886</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>270.6075506262145</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>388.5172695933601</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>449.0746100426747</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>441.5613112253942</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>371.3097463686981</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>278.8493457412584</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.4024681482562</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>65.44045399339319</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7480006069765</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>198.3036037288404</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>501.0755843108858</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>530.2032341190006</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>417.9458319213297</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>318.2635610365242</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.5206920065949</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.96657995307686</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
-        <v>114.9087042801211</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>131.6491810060192</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>134.0083692693092</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>107.6003426260323</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>68.31241677250537</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38113,7 +38113,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
